--- a/WorldCity.xlsx
+++ b/WorldCity.xlsx
@@ -372,102 +372,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B12"/>
+  <dimension ref="E2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>7</v>
       </c>
     </row>
